--- a/hokhau.xlsx
+++ b/hokhau.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="22">
   <si>
     <t/>
   </si>
@@ -35,7 +35,7 @@
     <t>4 La Khê, Hà Đông, Hà Nội, Việt Nam</t>
   </si>
   <si>
-    <t>test</t>
+    <t>null</t>
   </si>
   <si>
     <t>Đặng Thai Mai</t>
@@ -78,15 +78,6 @@
   </si>
   <si>
     <t>9 La Khê, Hà Đông, Hà Nội, Việt Nam</t>
-  </si>
-  <si>
-    <t>Lê Duy Thái</t>
-  </si>
-  <si>
-    <t>Đại phúc Bắc Ninh</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
 </sst>
 </file>
@@ -165,7 +156,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -215,7 +206,9 @@
       <c r="C3" t="s" s="1">
         <v>9</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n" s="1">
@@ -227,7 +220,9 @@
       <c r="C4" t="s" s="1">
         <v>11</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
@@ -239,7 +234,9 @@
       <c r="C5" t="s" s="1">
         <v>13</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" t="s" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n" s="1">
@@ -288,20 +285,6 @@
         <v>21</v>
       </c>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n" s="1">
-        <v>435344.0</v>
-      </c>
-      <c r="B10" t="s" s="1">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s" s="1">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s" s="1">
-        <v>24</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
